--- a/sample_data/Sample sheet for salary calculation and salary slip (1).xlsx
+++ b/sample_data/Sample sheet for salary calculation and salary slip (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAJ\Desktop\PDF\Excel-to-Pdf-Generator\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4EB68A-089F-4E6A-A394-AF988F6095D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57E677E-AE03-4900-BFEB-8B761FC7BFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="118">
   <si>
     <t xml:space="preserve">K.J SOMAIYA INSTITUTE OF ENGINEEERING &amp; INFORMATION TECHNOLOGY, </t>
   </si>
@@ -448,13 +448,13 @@
     <t>Union Fees</t>
   </si>
   <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
     <t>Dr Vivek Sunnapwar</t>
   </si>
   <si>
     <t>rajjm397@gmail.com</t>
+  </si>
+  <si>
+    <t>mail_id</t>
   </si>
 </sst>
 </file>
@@ -790,6 +790,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -804,14 +810,14 @@
     <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -827,12 +833,6 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1141,8 +1141,8 @@
   </sheetPr>
   <dimension ref="A1:AF82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView tabSelected="1" topLeftCell="X2" workbookViewId="0">
+      <selection activeCell="AG4" sqref="A4:AG100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1274,7 +1274,7 @@
         <v>77</v>
       </c>
       <c r="AF1" s="54" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -1282,7 +1282,7 @@
         <v>220309</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="56"/>
       <c r="D2" s="38"/>
@@ -1314,7 +1314,7 @@
       <c r="AD2" s="44"/>
       <c r="AE2" s="44"/>
       <c r="AF2" s="58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -1322,7 +1322,7 @@
         <v>220310</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="56"/>
       <c r="D3" s="38"/>
@@ -1354,16 +1354,12 @@
       <c r="AD3" s="44"/>
       <c r="AE3" s="44"/>
       <c r="AF3" s="58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="48">
-        <v>220311</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A4" s="48"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="56"/>
       <c r="D4" s="38"/>
       <c r="E4" s="39"/>
@@ -1393,17 +1389,11 @@
       <c r="AC4" s="44"/>
       <c r="AD4" s="44"/>
       <c r="AE4" s="44"/>
-      <c r="AF4" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF4" s="58"/>
     </row>
     <row r="5" spans="1:32" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="48">
-        <v>220312</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A5" s="48"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="56"/>
       <c r="D5" s="38"/>
       <c r="E5" s="39"/>
@@ -1433,17 +1423,11 @@
       <c r="AC5" s="44"/>
       <c r="AD5" s="44"/>
       <c r="AE5" s="44"/>
-      <c r="AF5" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF5" s="58"/>
     </row>
     <row r="6" spans="1:32" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="48">
-        <v>220313</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A6" s="48"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="56"/>
       <c r="D6" s="38"/>
       <c r="E6" s="39"/>
@@ -1473,17 +1457,11 @@
       <c r="AC6" s="44"/>
       <c r="AD6" s="44"/>
       <c r="AE6" s="44"/>
-      <c r="AF6" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF6" s="58"/>
     </row>
     <row r="7" spans="1:32" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="48">
-        <v>220314</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A7" s="48"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="56"/>
       <c r="D7" s="38"/>
       <c r="E7" s="39"/>
@@ -1513,17 +1491,11 @@
       <c r="AC7" s="44"/>
       <c r="AD7" s="44"/>
       <c r="AE7" s="44"/>
-      <c r="AF7" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF7" s="58"/>
     </row>
     <row r="8" spans="1:32" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="48">
-        <v>220315</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A8" s="48"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="56"/>
       <c r="D8" s="38"/>
       <c r="E8" s="39"/>
@@ -1553,17 +1525,11 @@
       <c r="AC8" s="44"/>
       <c r="AD8" s="44"/>
       <c r="AE8" s="44"/>
-      <c r="AF8" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF8" s="58"/>
     </row>
     <row r="9" spans="1:32" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="48">
-        <v>220316</v>
-      </c>
-      <c r="B9" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A9" s="48"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="56"/>
       <c r="D9" s="38"/>
       <c r="E9" s="39"/>
@@ -1593,17 +1559,11 @@
       <c r="AC9" s="44"/>
       <c r="AD9" s="44"/>
       <c r="AE9" s="44"/>
-      <c r="AF9" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF9" s="58"/>
     </row>
     <row r="10" spans="1:32" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="48">
-        <v>220317</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A10" s="48"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="56"/>
       <c r="D10" s="38"/>
       <c r="E10" s="39"/>
@@ -1633,17 +1593,11 @@
       <c r="AC10" s="44"/>
       <c r="AD10" s="44"/>
       <c r="AE10" s="44"/>
-      <c r="AF10" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF10" s="58"/>
     </row>
     <row r="11" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="48">
-        <v>220318</v>
-      </c>
-      <c r="B11" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A11" s="48"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="56"/>
       <c r="D11" s="38"/>
       <c r="E11" s="39"/>
@@ -1673,17 +1627,11 @@
       <c r="AC11" s="44"/>
       <c r="AD11" s="44"/>
       <c r="AE11" s="44"/>
-      <c r="AF11" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF11" s="58"/>
     </row>
     <row r="12" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="48">
-        <v>220319</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A12" s="48"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="56"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
@@ -1713,17 +1661,11 @@
       <c r="AC12" s="44"/>
       <c r="AD12" s="44"/>
       <c r="AE12" s="44"/>
-      <c r="AF12" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF12" s="58"/>
     </row>
     <row r="13" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="48">
-        <v>220320</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A13" s="48"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="56"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
@@ -1753,17 +1695,11 @@
       <c r="AC13" s="44"/>
       <c r="AD13" s="44"/>
       <c r="AE13" s="44"/>
-      <c r="AF13" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF13" s="58"/>
     </row>
     <row r="14" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="48">
-        <v>220321</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A14" s="48"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="56"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
@@ -1793,17 +1729,11 @@
       <c r="AC14" s="44"/>
       <c r="AD14" s="44"/>
       <c r="AE14" s="44"/>
-      <c r="AF14" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF14" s="58"/>
     </row>
     <row r="15" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="48">
-        <v>220322</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A15" s="48"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="56"/>
       <c r="D15" s="38"/>
       <c r="E15" s="39"/>
@@ -1833,17 +1763,11 @@
       <c r="AC15" s="44"/>
       <c r="AD15" s="44"/>
       <c r="AE15" s="44"/>
-      <c r="AF15" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF15" s="58"/>
     </row>
     <row r="16" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="48">
-        <v>220323</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A16" s="48"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="56"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
@@ -1873,17 +1797,11 @@
       <c r="AC16" s="44"/>
       <c r="AD16" s="44"/>
       <c r="AE16" s="44"/>
-      <c r="AF16" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF16" s="58"/>
     </row>
     <row r="17" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="48">
-        <v>220324</v>
-      </c>
-      <c r="B17" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A17" s="48"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="56"/>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
@@ -1913,17 +1831,11 @@
       <c r="AC17" s="44"/>
       <c r="AD17" s="44"/>
       <c r="AE17" s="44"/>
-      <c r="AF17" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF17" s="58"/>
     </row>
     <row r="18" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="48">
-        <v>220325</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A18" s="48"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="56"/>
       <c r="D18" s="38"/>
       <c r="E18" s="39"/>
@@ -1953,17 +1865,11 @@
       <c r="AC18" s="44"/>
       <c r="AD18" s="44"/>
       <c r="AE18" s="44"/>
-      <c r="AF18" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF18" s="58"/>
     </row>
     <row r="19" spans="1:32" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="48">
-        <v>220326</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A19" s="48"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="56"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
@@ -1993,17 +1899,11 @@
       <c r="AC19" s="44"/>
       <c r="AD19" s="44"/>
       <c r="AE19" s="44"/>
-      <c r="AF19" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF19" s="58"/>
     </row>
     <row r="20" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="48">
-        <v>220327</v>
-      </c>
-      <c r="B20" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A20" s="48"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="56"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
@@ -2033,17 +1933,11 @@
       <c r="AC20" s="44"/>
       <c r="AD20" s="44"/>
       <c r="AE20" s="44"/>
-      <c r="AF20" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF20" s="58"/>
     </row>
     <row r="21" spans="1:32" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="48">
-        <v>220328</v>
-      </c>
-      <c r="B21" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A21" s="48"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="56"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
@@ -2073,17 +1967,11 @@
       <c r="AC21" s="44"/>
       <c r="AD21" s="44"/>
       <c r="AE21" s="44"/>
-      <c r="AF21" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF21" s="58"/>
     </row>
     <row r="22" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="48">
-        <v>220329</v>
-      </c>
-      <c r="B22" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A22" s="48"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="56"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
@@ -2113,17 +2001,11 @@
       <c r="AC22" s="44"/>
       <c r="AD22" s="44"/>
       <c r="AE22" s="44"/>
-      <c r="AF22" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF22" s="58"/>
     </row>
     <row r="23" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="48">
-        <v>220330</v>
-      </c>
-      <c r="B23" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A23" s="48"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="56"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
@@ -2153,17 +2035,11 @@
       <c r="AC23" s="44"/>
       <c r="AD23" s="44"/>
       <c r="AE23" s="44"/>
-      <c r="AF23" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF23" s="58"/>
     </row>
     <row r="24" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="48">
-        <v>220331</v>
-      </c>
-      <c r="B24" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A24" s="48"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="56"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
@@ -2193,17 +2069,11 @@
       <c r="AC24" s="44"/>
       <c r="AD24" s="44"/>
       <c r="AE24" s="44"/>
-      <c r="AF24" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF24" s="58"/>
     </row>
     <row r="25" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="48">
-        <v>220332</v>
-      </c>
-      <c r="B25" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A25" s="48"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="56"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
@@ -2233,17 +2103,11 @@
       <c r="AC25" s="44"/>
       <c r="AD25" s="44"/>
       <c r="AE25" s="44"/>
-      <c r="AF25" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF25" s="58"/>
     </row>
     <row r="26" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="48">
-        <v>220333</v>
-      </c>
-      <c r="B26" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A26" s="48"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="56"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
@@ -2273,17 +2137,11 @@
       <c r="AC26" s="44"/>
       <c r="AD26" s="44"/>
       <c r="AE26" s="44"/>
-      <c r="AF26" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF26" s="58"/>
     </row>
     <row r="27" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="48">
-        <v>220334</v>
-      </c>
-      <c r="B27" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A27" s="48"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="56"/>
       <c r="D27" s="38"/>
       <c r="E27" s="39"/>
@@ -2313,17 +2171,11 @@
       <c r="AC27" s="44"/>
       <c r="AD27" s="44"/>
       <c r="AE27" s="44"/>
-      <c r="AF27" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF27" s="58"/>
     </row>
     <row r="28" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="48">
-        <v>220335</v>
-      </c>
-      <c r="B28" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A28" s="48"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="56"/>
       <c r="D28" s="38"/>
       <c r="E28" s="39"/>
@@ -2353,17 +2205,11 @@
       <c r="AC28" s="44"/>
       <c r="AD28" s="44"/>
       <c r="AE28" s="44"/>
-      <c r="AF28" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF28" s="58"/>
     </row>
     <row r="29" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="48">
-        <v>220336</v>
-      </c>
-      <c r="B29" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A29" s="48"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="56"/>
       <c r="D29" s="38"/>
       <c r="E29" s="39"/>
@@ -2393,17 +2239,11 @@
       <c r="AC29" s="44"/>
       <c r="AD29" s="44"/>
       <c r="AE29" s="44"/>
-      <c r="AF29" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF29" s="58"/>
     </row>
     <row r="30" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="48">
-        <v>220337</v>
-      </c>
-      <c r="B30" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A30" s="48"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="56"/>
       <c r="D30" s="38"/>
       <c r="E30" s="39"/>
@@ -2433,17 +2273,11 @@
       <c r="AC30" s="44"/>
       <c r="AD30" s="44"/>
       <c r="AE30" s="44"/>
-      <c r="AF30" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF30" s="58"/>
     </row>
     <row r="31" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="48">
-        <v>220338</v>
-      </c>
-      <c r="B31" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A31" s="48"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="56"/>
       <c r="D31" s="38"/>
       <c r="E31" s="39"/>
@@ -2473,17 +2307,11 @@
       <c r="AC31" s="44"/>
       <c r="AD31" s="44"/>
       <c r="AE31" s="44"/>
-      <c r="AF31" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF31" s="58"/>
     </row>
     <row r="32" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="48">
-        <v>220339</v>
-      </c>
-      <c r="B32" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A32" s="48"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="56"/>
       <c r="D32" s="38"/>
       <c r="E32" s="39"/>
@@ -2513,17 +2341,11 @@
       <c r="AC32" s="44"/>
       <c r="AD32" s="44"/>
       <c r="AE32" s="44"/>
-      <c r="AF32" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF32" s="58"/>
     </row>
     <row r="33" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="48">
-        <v>220340</v>
-      </c>
-      <c r="B33" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A33" s="48"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="56"/>
       <c r="D33" s="38"/>
       <c r="E33" s="39"/>
@@ -2553,17 +2375,11 @@
       <c r="AC33" s="44"/>
       <c r="AD33" s="44"/>
       <c r="AE33" s="44"/>
-      <c r="AF33" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF33" s="58"/>
     </row>
     <row r="34" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="48">
-        <v>220341</v>
-      </c>
-      <c r="B34" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A34" s="48"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="56"/>
       <c r="D34" s="38"/>
       <c r="E34" s="39"/>
@@ -2593,17 +2409,11 @@
       <c r="AC34" s="44"/>
       <c r="AD34" s="44"/>
       <c r="AE34" s="44"/>
-      <c r="AF34" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF34" s="58"/>
     </row>
     <row r="35" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="48">
-        <v>220342</v>
-      </c>
-      <c r="B35" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A35" s="48"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="56"/>
       <c r="D35" s="38"/>
       <c r="E35" s="39"/>
@@ -2633,17 +2443,11 @@
       <c r="AC35" s="44"/>
       <c r="AD35" s="44"/>
       <c r="AE35" s="44"/>
-      <c r="AF35" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF35" s="58"/>
     </row>
     <row r="36" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="48">
-        <v>220343</v>
-      </c>
-      <c r="B36" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A36" s="48"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="56"/>
       <c r="D36" s="38"/>
       <c r="E36" s="39"/>
@@ -2673,17 +2477,11 @@
       <c r="AC36" s="44"/>
       <c r="AD36" s="44"/>
       <c r="AE36" s="44"/>
-      <c r="AF36" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF36" s="58"/>
     </row>
     <row r="37" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="48">
-        <v>220344</v>
-      </c>
-      <c r="B37" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A37" s="48"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="56"/>
       <c r="D37" s="38"/>
       <c r="E37" s="39"/>
@@ -2713,17 +2511,11 @@
       <c r="AC37" s="44"/>
       <c r="AD37" s="44"/>
       <c r="AE37" s="44"/>
-      <c r="AF37" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF37" s="58"/>
     </row>
     <row r="38" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="48">
-        <v>220345</v>
-      </c>
-      <c r="B38" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A38" s="48"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="56"/>
       <c r="D38" s="38"/>
       <c r="E38" s="39"/>
@@ -2753,17 +2545,11 @@
       <c r="AC38" s="44"/>
       <c r="AD38" s="44"/>
       <c r="AE38" s="44"/>
-      <c r="AF38" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF38" s="58"/>
     </row>
     <row r="39" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="48">
-        <v>220346</v>
-      </c>
-      <c r="B39" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A39" s="48"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="56"/>
       <c r="D39" s="38"/>
       <c r="E39" s="39"/>
@@ -2793,17 +2579,11 @@
       <c r="AC39" s="44"/>
       <c r="AD39" s="44"/>
       <c r="AE39" s="44"/>
-      <c r="AF39" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF39" s="58"/>
     </row>
     <row r="40" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="48">
-        <v>220347</v>
-      </c>
-      <c r="B40" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A40" s="48"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="56"/>
       <c r="D40" s="38"/>
       <c r="E40" s="39"/>
@@ -2833,17 +2613,11 @@
       <c r="AC40" s="44"/>
       <c r="AD40" s="44"/>
       <c r="AE40" s="44"/>
-      <c r="AF40" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF40" s="58"/>
     </row>
     <row r="41" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="48">
-        <v>220348</v>
-      </c>
-      <c r="B41" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A41" s="48"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="56"/>
       <c r="D41" s="38"/>
       <c r="E41" s="39"/>
@@ -2873,17 +2647,11 @@
       <c r="AC41" s="44"/>
       <c r="AD41" s="44"/>
       <c r="AE41" s="44"/>
-      <c r="AF41" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF41" s="58"/>
     </row>
     <row r="42" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="48">
-        <v>220349</v>
-      </c>
-      <c r="B42" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A42" s="48"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="56"/>
       <c r="D42" s="38"/>
       <c r="E42" s="39"/>
@@ -2913,17 +2681,11 @@
       <c r="AC42" s="44"/>
       <c r="AD42" s="44"/>
       <c r="AE42" s="44"/>
-      <c r="AF42" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF42" s="58"/>
     </row>
     <row r="43" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="48">
-        <v>220350</v>
-      </c>
-      <c r="B43" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A43" s="48"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="56"/>
       <c r="D43" s="38"/>
       <c r="E43" s="39"/>
@@ -2953,17 +2715,11 @@
       <c r="AC43" s="44"/>
       <c r="AD43" s="44"/>
       <c r="AE43" s="44"/>
-      <c r="AF43" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF43" s="58"/>
     </row>
     <row r="44" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="48">
-        <v>220351</v>
-      </c>
-      <c r="B44" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A44" s="48"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="56"/>
       <c r="D44" s="38"/>
       <c r="E44" s="39"/>
@@ -2993,17 +2749,11 @@
       <c r="AC44" s="44"/>
       <c r="AD44" s="44"/>
       <c r="AE44" s="44"/>
-      <c r="AF44" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF44" s="58"/>
     </row>
     <row r="45" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="48">
-        <v>220352</v>
-      </c>
-      <c r="B45" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A45" s="48"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="56"/>
       <c r="D45" s="38"/>
       <c r="E45" s="39"/>
@@ -3033,17 +2783,11 @@
       <c r="AC45" s="44"/>
       <c r="AD45" s="44"/>
       <c r="AE45" s="44"/>
-      <c r="AF45" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF45" s="58"/>
     </row>
     <row r="46" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="48">
-        <v>220353</v>
-      </c>
-      <c r="B46" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A46" s="48"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="56"/>
       <c r="D46" s="38"/>
       <c r="E46" s="39"/>
@@ -3073,17 +2817,11 @@
       <c r="AC46" s="44"/>
       <c r="AD46" s="44"/>
       <c r="AE46" s="44"/>
-      <c r="AF46" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF46" s="58"/>
     </row>
     <row r="47" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="48">
-        <v>220354</v>
-      </c>
-      <c r="B47" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A47" s="48"/>
+      <c r="B47" s="55"/>
       <c r="C47" s="56"/>
       <c r="D47" s="38"/>
       <c r="E47" s="39"/>
@@ -3113,17 +2851,11 @@
       <c r="AC47" s="44"/>
       <c r="AD47" s="44"/>
       <c r="AE47" s="44"/>
-      <c r="AF47" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF47" s="58"/>
     </row>
     <row r="48" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="48">
-        <v>220355</v>
-      </c>
-      <c r="B48" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A48" s="48"/>
+      <c r="B48" s="55"/>
       <c r="C48" s="56"/>
       <c r="D48" s="38"/>
       <c r="E48" s="39"/>
@@ -3153,17 +2885,11 @@
       <c r="AC48" s="44"/>
       <c r="AD48" s="44"/>
       <c r="AE48" s="44"/>
-      <c r="AF48" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF48" s="58"/>
     </row>
     <row r="49" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="48">
-        <v>220356</v>
-      </c>
-      <c r="B49" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A49" s="48"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="56"/>
       <c r="D49" s="38"/>
       <c r="E49" s="39"/>
@@ -3193,17 +2919,11 @@
       <c r="AC49" s="44"/>
       <c r="AD49" s="44"/>
       <c r="AE49" s="44"/>
-      <c r="AF49" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF49" s="58"/>
     </row>
     <row r="50" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="48">
-        <v>220357</v>
-      </c>
-      <c r="B50" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A50" s="48"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="56"/>
       <c r="D50" s="38"/>
       <c r="E50" s="39"/>
@@ -3233,17 +2953,11 @@
       <c r="AC50" s="44"/>
       <c r="AD50" s="44"/>
       <c r="AE50" s="44"/>
-      <c r="AF50" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF50" s="58"/>
     </row>
     <row r="51" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="48">
-        <v>220358</v>
-      </c>
-      <c r="B51" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A51" s="48"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="56"/>
       <c r="D51" s="38"/>
       <c r="E51" s="39"/>
@@ -3273,17 +2987,11 @@
       <c r="AC51" s="44"/>
       <c r="AD51" s="44"/>
       <c r="AE51" s="44"/>
-      <c r="AF51" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF51" s="58"/>
     </row>
     <row r="52" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="48">
-        <v>220359</v>
-      </c>
-      <c r="B52" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A52" s="48"/>
+      <c r="B52" s="55"/>
       <c r="C52" s="56"/>
       <c r="D52" s="38"/>
       <c r="E52" s="39"/>
@@ -3313,17 +3021,11 @@
       <c r="AC52" s="44"/>
       <c r="AD52" s="44"/>
       <c r="AE52" s="44"/>
-      <c r="AF52" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF52" s="58"/>
     </row>
     <row r="53" spans="1:32" ht="63" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="48">
-        <v>220360</v>
-      </c>
-      <c r="B53" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A53" s="48"/>
+      <c r="B53" s="55"/>
       <c r="C53" s="56"/>
       <c r="D53" s="38"/>
       <c r="E53" s="39"/>
@@ -3353,17 +3055,11 @@
       <c r="AC53" s="44"/>
       <c r="AD53" s="44"/>
       <c r="AE53" s="44"/>
-      <c r="AF53" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF53" s="58"/>
     </row>
     <row r="54" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="48">
-        <v>220361</v>
-      </c>
-      <c r="B54" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A54" s="48"/>
+      <c r="B54" s="55"/>
       <c r="C54" s="56"/>
       <c r="D54" s="38"/>
       <c r="E54" s="39"/>
@@ -3393,17 +3089,11 @@
       <c r="AC54" s="44"/>
       <c r="AD54" s="44"/>
       <c r="AE54" s="44"/>
-      <c r="AF54" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF54" s="58"/>
     </row>
     <row r="55" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="48">
-        <v>220362</v>
-      </c>
-      <c r="B55" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A55" s="48"/>
+      <c r="B55" s="55"/>
       <c r="C55" s="56"/>
       <c r="D55" s="38"/>
       <c r="E55" s="39"/>
@@ -3433,17 +3123,11 @@
       <c r="AC55" s="44"/>
       <c r="AD55" s="44"/>
       <c r="AE55" s="44"/>
-      <c r="AF55" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF55" s="58"/>
     </row>
     <row r="56" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="48">
-        <v>220363</v>
-      </c>
-      <c r="B56" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A56" s="48"/>
+      <c r="B56" s="55"/>
       <c r="C56" s="56"/>
       <c r="D56" s="38"/>
       <c r="E56" s="39"/>
@@ -3473,17 +3157,11 @@
       <c r="AC56" s="44"/>
       <c r="AD56" s="44"/>
       <c r="AE56" s="44"/>
-      <c r="AF56" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF56" s="58"/>
     </row>
     <row r="57" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="48">
-        <v>220364</v>
-      </c>
-      <c r="B57" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A57" s="48"/>
+      <c r="B57" s="55"/>
       <c r="C57" s="56"/>
       <c r="D57" s="38"/>
       <c r="E57" s="39"/>
@@ -3513,17 +3191,11 @@
       <c r="AC57" s="44"/>
       <c r="AD57" s="44"/>
       <c r="AE57" s="44"/>
-      <c r="AF57" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF57" s="58"/>
     </row>
     <row r="58" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="48">
-        <v>220365</v>
-      </c>
-      <c r="B58" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A58" s="48"/>
+      <c r="B58" s="55"/>
       <c r="C58" s="56"/>
       <c r="D58" s="38"/>
       <c r="E58" s="39"/>
@@ -3553,17 +3225,11 @@
       <c r="AC58" s="44"/>
       <c r="AD58" s="44"/>
       <c r="AE58" s="44"/>
-      <c r="AF58" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF58" s="58"/>
     </row>
     <row r="59" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="48">
-        <v>220366</v>
-      </c>
-      <c r="B59" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A59" s="48"/>
+      <c r="B59" s="55"/>
       <c r="C59" s="56"/>
       <c r="D59" s="38"/>
       <c r="E59" s="39"/>
@@ -3593,17 +3259,11 @@
       <c r="AC59" s="44"/>
       <c r="AD59" s="44"/>
       <c r="AE59" s="44"/>
-      <c r="AF59" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF59" s="58"/>
     </row>
     <row r="60" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="48">
-        <v>220367</v>
-      </c>
-      <c r="B60" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A60" s="48"/>
+      <c r="B60" s="55"/>
       <c r="C60" s="56"/>
       <c r="D60" s="38"/>
       <c r="E60" s="39"/>
@@ -3633,17 +3293,11 @@
       <c r="AC60" s="44"/>
       <c r="AD60" s="44"/>
       <c r="AE60" s="44"/>
-      <c r="AF60" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF60" s="58"/>
     </row>
     <row r="61" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="48">
-        <v>220368</v>
-      </c>
-      <c r="B61" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A61" s="48"/>
+      <c r="B61" s="55"/>
       <c r="C61" s="56"/>
       <c r="D61" s="38"/>
       <c r="E61" s="39"/>
@@ -3673,17 +3327,11 @@
       <c r="AC61" s="44"/>
       <c r="AD61" s="44"/>
       <c r="AE61" s="44"/>
-      <c r="AF61" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF61" s="58"/>
     </row>
     <row r="62" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="48">
-        <v>220369</v>
-      </c>
-      <c r="B62" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A62" s="48"/>
+      <c r="B62" s="55"/>
       <c r="C62" s="56"/>
       <c r="D62" s="38"/>
       <c r="E62" s="39"/>
@@ -3713,17 +3361,11 @@
       <c r="AC62" s="44"/>
       <c r="AD62" s="44"/>
       <c r="AE62" s="44"/>
-      <c r="AF62" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF62" s="58"/>
     </row>
     <row r="63" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="48">
-        <v>220370</v>
-      </c>
-      <c r="B63" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A63" s="48"/>
+      <c r="B63" s="55"/>
       <c r="C63" s="56"/>
       <c r="D63" s="38"/>
       <c r="E63" s="39"/>
@@ -3753,17 +3395,11 @@
       <c r="AC63" s="44"/>
       <c r="AD63" s="44"/>
       <c r="AE63" s="44"/>
-      <c r="AF63" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF63" s="58"/>
     </row>
     <row r="64" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="48">
-        <v>220371</v>
-      </c>
-      <c r="B64" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A64" s="48"/>
+      <c r="B64" s="55"/>
       <c r="C64" s="56"/>
       <c r="D64" s="38"/>
       <c r="E64" s="39"/>
@@ -3793,17 +3429,11 @@
       <c r="AC64" s="44"/>
       <c r="AD64" s="44"/>
       <c r="AE64" s="44"/>
-      <c r="AF64" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF64" s="58"/>
     </row>
     <row r="65" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="48">
-        <v>220372</v>
-      </c>
-      <c r="B65" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A65" s="48"/>
+      <c r="B65" s="55"/>
       <c r="C65" s="56"/>
       <c r="D65" s="38"/>
       <c r="E65" s="39"/>
@@ -3833,17 +3463,11 @@
       <c r="AC65" s="44"/>
       <c r="AD65" s="44"/>
       <c r="AE65" s="44"/>
-      <c r="AF65" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF65" s="58"/>
     </row>
     <row r="66" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="48">
-        <v>220373</v>
-      </c>
-      <c r="B66" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A66" s="48"/>
+      <c r="B66" s="55"/>
       <c r="C66" s="56"/>
       <c r="D66" s="38"/>
       <c r="E66" s="39"/>
@@ -3873,17 +3497,11 @@
       <c r="AC66" s="44"/>
       <c r="AD66" s="44"/>
       <c r="AE66" s="44"/>
-      <c r="AF66" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF66" s="58"/>
     </row>
     <row r="67" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="48">
-        <v>220374</v>
-      </c>
-      <c r="B67" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A67" s="48"/>
+      <c r="B67" s="55"/>
       <c r="C67" s="56"/>
       <c r="D67" s="38"/>
       <c r="E67" s="39"/>
@@ -3913,17 +3531,11 @@
       <c r="AC67" s="44"/>
       <c r="AD67" s="44"/>
       <c r="AE67" s="44"/>
-      <c r="AF67" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF67" s="58"/>
     </row>
     <row r="68" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="48">
-        <v>220375</v>
-      </c>
-      <c r="B68" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A68" s="48"/>
+      <c r="B68" s="55"/>
       <c r="C68" s="56"/>
       <c r="D68" s="38"/>
       <c r="E68" s="39"/>
@@ -3953,17 +3565,11 @@
       <c r="AC68" s="44"/>
       <c r="AD68" s="44"/>
       <c r="AE68" s="44"/>
-      <c r="AF68" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF68" s="58"/>
     </row>
     <row r="69" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="48">
-        <v>220376</v>
-      </c>
-      <c r="B69" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A69" s="48"/>
+      <c r="B69" s="55"/>
       <c r="C69" s="56"/>
       <c r="D69" s="38"/>
       <c r="E69" s="39"/>
@@ -3993,17 +3599,11 @@
       <c r="AC69" s="44"/>
       <c r="AD69" s="44"/>
       <c r="AE69" s="44"/>
-      <c r="AF69" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF69" s="58"/>
     </row>
     <row r="70" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="48">
-        <v>220377</v>
-      </c>
-      <c r="B70" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A70" s="48"/>
+      <c r="B70" s="55"/>
       <c r="C70" s="56"/>
       <c r="D70" s="38"/>
       <c r="E70" s="39"/>
@@ -4033,17 +3633,11 @@
       <c r="AC70" s="44"/>
       <c r="AD70" s="44"/>
       <c r="AE70" s="44"/>
-      <c r="AF70" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF70" s="58"/>
     </row>
     <row r="71" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="48">
-        <v>220378</v>
-      </c>
-      <c r="B71" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A71" s="48"/>
+      <c r="B71" s="55"/>
       <c r="C71" s="56"/>
       <c r="D71" s="38"/>
       <c r="E71" s="39"/>
@@ -4073,17 +3667,11 @@
       <c r="AC71" s="44"/>
       <c r="AD71" s="44"/>
       <c r="AE71" s="44"/>
-      <c r="AF71" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF71" s="58"/>
     </row>
     <row r="72" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="48">
-        <v>220379</v>
-      </c>
-      <c r="B72" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A72" s="48"/>
+      <c r="B72" s="55"/>
       <c r="C72" s="56"/>
       <c r="D72" s="38"/>
       <c r="E72" s="39"/>
@@ -4113,17 +3701,11 @@
       <c r="AC72" s="44"/>
       <c r="AD72" s="44"/>
       <c r="AE72" s="44"/>
-      <c r="AF72" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF72" s="58"/>
     </row>
     <row r="73" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="48">
-        <v>220380</v>
-      </c>
-      <c r="B73" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A73" s="48"/>
+      <c r="B73" s="55"/>
       <c r="C73" s="56"/>
       <c r="D73" s="38"/>
       <c r="E73" s="39"/>
@@ -4153,17 +3735,11 @@
       <c r="AC73" s="44"/>
       <c r="AD73" s="44"/>
       <c r="AE73" s="44"/>
-      <c r="AF73" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF73" s="58"/>
     </row>
     <row r="74" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="48">
-        <v>220381</v>
-      </c>
-      <c r="B74" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A74" s="48"/>
+      <c r="B74" s="55"/>
       <c r="C74" s="56"/>
       <c r="D74" s="38"/>
       <c r="E74" s="39"/>
@@ -4193,17 +3769,11 @@
       <c r="AC74" s="44"/>
       <c r="AD74" s="44"/>
       <c r="AE74" s="44"/>
-      <c r="AF74" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF74" s="58"/>
     </row>
     <row r="75" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="48">
-        <v>220382</v>
-      </c>
-      <c r="B75" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A75" s="48"/>
+      <c r="B75" s="55"/>
       <c r="C75" s="56"/>
       <c r="D75" s="38"/>
       <c r="E75" s="39"/>
@@ -4233,17 +3803,11 @@
       <c r="AC75" s="44"/>
       <c r="AD75" s="44"/>
       <c r="AE75" s="44"/>
-      <c r="AF75" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF75" s="58"/>
     </row>
     <row r="76" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="48">
-        <v>220383</v>
-      </c>
-      <c r="B76" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A76" s="48"/>
+      <c r="B76" s="55"/>
       <c r="C76" s="56"/>
       <c r="D76" s="38"/>
       <c r="E76" s="39"/>
@@ -4273,17 +3837,11 @@
       <c r="AC76" s="44"/>
       <c r="AD76" s="44"/>
       <c r="AE76" s="44"/>
-      <c r="AF76" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF76" s="58"/>
     </row>
     <row r="77" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="48">
-        <v>220384</v>
-      </c>
-      <c r="B77" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A77" s="48"/>
+      <c r="B77" s="55"/>
       <c r="C77" s="56"/>
       <c r="D77" s="38"/>
       <c r="E77" s="39"/>
@@ -4313,17 +3871,11 @@
       <c r="AC77" s="44"/>
       <c r="AD77" s="44"/>
       <c r="AE77" s="44"/>
-      <c r="AF77" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF77" s="58"/>
     </row>
     <row r="78" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="48">
-        <v>220385</v>
-      </c>
-      <c r="B78" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A78" s="48"/>
+      <c r="B78" s="55"/>
       <c r="C78" s="56"/>
       <c r="D78" s="38"/>
       <c r="E78" s="39"/>
@@ -4353,17 +3905,11 @@
       <c r="AC78" s="44"/>
       <c r="AD78" s="44"/>
       <c r="AE78" s="44"/>
-      <c r="AF78" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF78" s="58"/>
     </row>
     <row r="79" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="48">
-        <v>220386</v>
-      </c>
-      <c r="B79" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A79" s="48"/>
+      <c r="B79" s="55"/>
       <c r="C79" s="56"/>
       <c r="D79" s="38"/>
       <c r="E79" s="39"/>
@@ -4393,17 +3939,11 @@
       <c r="AC79" s="44"/>
       <c r="AD79" s="44"/>
       <c r="AE79" s="44"/>
-      <c r="AF79" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF79" s="58"/>
     </row>
     <row r="80" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="48">
-        <v>220387</v>
-      </c>
-      <c r="B80" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A80" s="48"/>
+      <c r="B80" s="55"/>
       <c r="C80" s="56"/>
       <c r="D80" s="38"/>
       <c r="E80" s="39"/>
@@ -4433,17 +3973,11 @@
       <c r="AC80" s="44"/>
       <c r="AD80" s="44"/>
       <c r="AE80" s="44"/>
-      <c r="AF80" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF80" s="58"/>
     </row>
     <row r="81" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="48">
-        <v>220388</v>
-      </c>
-      <c r="B81" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A81" s="48"/>
+      <c r="B81" s="55"/>
       <c r="C81" s="56"/>
       <c r="D81" s="38"/>
       <c r="E81" s="39"/>
@@ -4473,17 +4007,11 @@
       <c r="AC81" s="44"/>
       <c r="AD81" s="44"/>
       <c r="AE81" s="44"/>
-      <c r="AF81" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF81" s="58"/>
     </row>
     <row r="82" spans="1:32" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="48">
-        <v>220389</v>
-      </c>
-      <c r="B82" s="55" t="s">
-        <v>116</v>
-      </c>
+      <c r="A82" s="48"/>
+      <c r="B82" s="55"/>
       <c r="C82" s="56"/>
       <c r="D82" s="38"/>
       <c r="E82" s="39"/>
@@ -4513,9 +4041,7 @@
       <c r="AC82" s="44"/>
       <c r="AD82" s="44"/>
       <c r="AE82" s="44"/>
-      <c r="AF82" s="58" t="s">
-        <v>117</v>
-      </c>
+      <c r="AF82" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8232,30 +7758,30 @@
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="64"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22"/>
@@ -8304,8 +7830,8 @@
       <c r="A8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="2"/>
       <c r="F8" s="27" t="s">
         <v>7</v>
@@ -8336,8 +7862,8 @@
       <c r="F10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
@@ -8373,10 +7899,10 @@
     </row>
     <row r="14" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="61"/>
+      <c r="C14" s="63"/>
       <c r="E14" s="23" t="s">
         <v>16</v>
       </c>
@@ -8390,28 +7916,28 @@
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="66"/>
+      <c r="C15" s="61"/>
       <c r="E15" s="31">
         <v>0</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="H15" s="67" t="s">
+      <c r="H15" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="67"/>
+      <c r="I15" s="62"/>
       <c r="J15" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="66"/>
+      <c r="C16" s="61"/>
       <c r="E16" s="31">
         <v>0</v>
       </c>
@@ -8655,13 +8181,13 @@
       <c r="B2" s="68"/>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="68"/>
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="69"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="71"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="68" t="s">
@@ -8670,13 +8196,13 @@
       <c r="B3" s="68"/>
       <c r="C3" s="68"/>
       <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="70"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="68"/>
       <c r="H3" s="68"/>
       <c r="I3" s="68"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="69"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
@@ -8730,8 +8256,8 @@
         <v>4</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11" t="s">
         <v>5</v>
@@ -8747,8 +8273,8 @@
         <v>6</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="10"/>
       <c r="F8" s="11" t="s">
         <v>7</v>
@@ -8788,8 +8314,8 @@
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8862,20 +8388,20 @@
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="74"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="9"/>
       <c r="E15" s="13">
         <v>0</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="75" t="s">
+      <c r="H15" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="75"/>
+      <c r="I15" s="70"/>
       <c r="J15" s="4"/>
       <c r="K15" s="14">
         <v>0</v>
@@ -8883,10 +8409,10 @@
     </row>
     <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="9"/>
       <c r="E16" s="13">
         <v>0</v>
